--- a/2020/data/processed/NERACOOS.xlsx
+++ b/2020/data/processed/NERACOOS.xlsx
@@ -1112,7 +1112,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
